--- a/static/download/2021/RP3_FLT_EFF_2021_Jan_Dec.xlsx
+++ b/static/download/2021/RP3_FLT_EFF_2021_Jan_Dec.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="156">
   <si>
     <t>Data source</t>
   </si>
@@ -477,6 +477,12 @@
   </si>
   <si>
     <t>UK removed from SES area</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>2021 Targets from performance plan included</t>
   </si>
 </sst>
 </file>
@@ -900,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1168,6 +1174,9 @@
     <xf borderId="8" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="8" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1192,14 +1201,14 @@
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -1292,15 +1301,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.14"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="3" width="10.43"/>
-    <col customWidth="1" min="4" max="4" width="12.43"/>
-    <col customWidth="1" min="5" max="5" width="13.14"/>
-    <col customWidth="1" min="6" max="6" width="12.71"/>
-    <col customWidth="1" min="7" max="7" width="12.0"/>
+    <col customWidth="1" min="1" max="1" width="11.5"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="3" max="3" width="9.13"/>
+    <col customWidth="1" min="4" max="4" width="10.88"/>
+    <col customWidth="1" min="5" max="5" width="11.5"/>
+    <col customWidth="1" min="6" max="6" width="11.13"/>
+    <col customWidth="1" min="7" max="7" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -1330,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>44578.0</v>
+        <v>44665.0</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -1577,14 +1586,14 @@
       <selection activeCell="B7" sqref="B7" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.14"/>
-    <col customWidth="1" min="2" max="2" width="18.43"/>
-    <col customWidth="1" min="3" max="3" width="17.57"/>
-    <col customWidth="1" min="4" max="4" width="15.71"/>
-    <col customWidth="1" min="5" max="5" width="10.71"/>
-    <col customWidth="1" min="6" max="6" width="27.43"/>
+    <col customWidth="1" min="1" max="1" width="11.5"/>
+    <col customWidth="1" min="2" max="2" width="16.13"/>
+    <col customWidth="1" min="3" max="3" width="15.38"/>
+    <col customWidth="1" min="4" max="4" width="13.75"/>
+    <col customWidth="1" min="5" max="5" width="9.38"/>
+    <col customWidth="1" min="6" max="6" width="24.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -1614,7 +1623,7 @@
       </c>
       <c r="B2" s="7">
         <f>FLT_EFF_YY!B2</f>
-        <v>44578</v>
+        <v>44665</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -2591,14 +2600,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.43"/>
-    <col customWidth="1" min="2" max="2" width="14.57"/>
-    <col customWidth="1" min="3" max="3" width="11.43"/>
-    <col customWidth="1" min="4" max="4" width="11.71"/>
-    <col customWidth="1" min="5" max="5" width="12.29"/>
-    <col customWidth="1" min="6" max="6" width="11.14"/>
+    <col customWidth="1" min="1" max="1" width="20.5"/>
+    <col customWidth="1" min="2" max="2" width="12.75"/>
+    <col customWidth="1" min="3" max="3" width="10.0"/>
+    <col customWidth="1" min="4" max="4" width="10.25"/>
+    <col customWidth="1" min="5" max="5" width="10.75"/>
+    <col customWidth="1" min="6" max="6" width="9.75"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -2628,7 +2637,7 @@
       </c>
       <c r="B2" s="7">
         <f>FLT_EFF_YY!B2</f>
-        <v>44578</v>
+        <v>44665</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -2705,7 +2714,10 @@
       <c r="E6" s="83">
         <v>0.0259</v>
       </c>
-      <c r="F6" s="84"/>
+      <c r="F6" s="84">
+        <f>E6-D6</f>
+        <v>0.0012</v>
+      </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="85" t="s">
@@ -2797,11 +2809,16 @@
       <c r="C12" s="83">
         <v>0.0553</v>
       </c>
-      <c r="D12" s="82"/>
+      <c r="D12" s="83">
+        <v>0.0275</v>
+      </c>
       <c r="E12" s="83">
         <v>0.0296</v>
       </c>
-      <c r="F12" s="84"/>
+      <c r="F12" s="84">
+        <f>E12-D12</f>
+        <v>0.0021</v>
+      </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="85" t="s">
@@ -2874,14 +2891,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.0"/>
-    <col customWidth="1" min="2" max="2" width="14.57"/>
-    <col customWidth="1" min="3" max="3" width="12.14"/>
-    <col customWidth="1" min="4" max="4" width="11.71"/>
-    <col customWidth="1" min="5" max="5" width="12.29"/>
-    <col customWidth="1" min="6" max="6" width="11.0"/>
+    <col customWidth="1" min="1" max="1" width="17.5"/>
+    <col customWidth="1" min="2" max="2" width="12.75"/>
+    <col customWidth="1" min="3" max="3" width="10.63"/>
+    <col customWidth="1" min="4" max="4" width="10.25"/>
+    <col customWidth="1" min="5" max="5" width="10.75"/>
+    <col customWidth="1" min="6" max="6" width="9.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -2911,7 +2928,7 @@
       </c>
       <c r="B2" s="7">
         <f>FLT_EFF_YY!B2</f>
-        <v>44578</v>
+        <v>44665</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -2982,11 +2999,16 @@
       <c r="C6" s="87">
         <v>0.0252</v>
       </c>
-      <c r="D6" s="88"/>
+      <c r="D6" s="88">
+        <v>0.0196</v>
+      </c>
       <c r="E6" s="88">
         <v>0.0187</v>
       </c>
-      <c r="F6" s="89"/>
+      <c r="F6" s="89">
+        <f>E6-D6</f>
+        <v>-0.0009</v>
+      </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="90" t="s">
@@ -2998,7 +3020,7 @@
       <c r="C7" s="88">
         <v>0.0693</v>
       </c>
-      <c r="D7" s="87"/>
+      <c r="D7" s="91"/>
       <c r="E7" s="88">
         <v>0.0355</v>
       </c>
@@ -3014,11 +3036,16 @@
       <c r="C8" s="88">
         <v>0.0283</v>
       </c>
-      <c r="D8" s="87"/>
+      <c r="D8" s="87">
+        <v>0.0225</v>
+      </c>
       <c r="E8" s="88">
         <v>0.0248</v>
       </c>
-      <c r="F8" s="89"/>
+      <c r="F8" s="89">
+        <f t="shared" ref="F8:F14" si="1">E8-D8</f>
+        <v>0.0023</v>
+      </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="90" t="s">
@@ -3030,11 +3057,16 @@
       <c r="C9" s="88">
         <v>0.0151</v>
       </c>
-      <c r="D9" s="87"/>
+      <c r="D9" s="87">
+        <v>0.0146</v>
+      </c>
       <c r="E9" s="88">
         <v>0.0132</v>
       </c>
-      <c r="F9" s="89"/>
+      <c r="F9" s="89">
+        <f t="shared" si="1"/>
+        <v>-0.0014</v>
+      </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="90" t="s">
@@ -3046,11 +3078,16 @@
       <c r="C10" s="88">
         <v>0.0671</v>
       </c>
-      <c r="D10" s="87"/>
+      <c r="D10" s="87">
+        <v>0.0384</v>
+      </c>
       <c r="E10" s="88">
         <v>0.0449</v>
       </c>
-      <c r="F10" s="89"/>
+      <c r="F10" s="89">
+        <f t="shared" si="1"/>
+        <v>0.0065</v>
+      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="90" t="s">
@@ -3062,11 +3099,16 @@
       <c r="C11" s="88">
         <v>0.0294</v>
       </c>
-      <c r="D11" s="87"/>
+      <c r="D11" s="87">
+        <v>0.0205</v>
+      </c>
       <c r="E11" s="88">
         <v>0.0203</v>
       </c>
-      <c r="F11" s="89"/>
+      <c r="F11" s="89">
+        <f t="shared" si="1"/>
+        <v>-0.0002</v>
+      </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="90" t="s">
@@ -3078,11 +3120,16 @@
       <c r="C12" s="88">
         <v>0.0231</v>
       </c>
-      <c r="D12" s="87"/>
+      <c r="D12" s="87">
+        <v>0.0114</v>
+      </c>
       <c r="E12" s="88">
         <v>0.0108</v>
       </c>
-      <c r="F12" s="89"/>
+      <c r="F12" s="89">
+        <f t="shared" si="1"/>
+        <v>-0.0006</v>
+      </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="90" t="s">
@@ -3094,11 +3141,16 @@
       <c r="C13" s="87">
         <v>0.0162</v>
       </c>
-      <c r="D13" s="87"/>
+      <c r="D13" s="87">
+        <v>0.0122</v>
+      </c>
       <c r="E13" s="88">
         <v>0.0143</v>
       </c>
-      <c r="F13" s="89"/>
+      <c r="F13" s="89">
+        <f t="shared" si="1"/>
+        <v>0.0021</v>
+      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="90" t="s">
@@ -3110,11 +3162,16 @@
       <c r="C14" s="87">
         <v>0.0098</v>
       </c>
-      <c r="D14" s="87"/>
+      <c r="D14" s="87">
+        <v>0.0088</v>
+      </c>
       <c r="E14" s="87">
         <v>0.0077</v>
       </c>
-      <c r="F14" s="89"/>
+      <c r="F14" s="89">
+        <f t="shared" si="1"/>
+        <v>-0.0011</v>
+      </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="90" t="s">
@@ -3126,7 +3183,7 @@
       <c r="C15" s="88">
         <v>0.0578</v>
       </c>
-      <c r="D15" s="87"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="88">
         <v>0.0325</v>
       </c>
@@ -3142,7 +3199,7 @@
       <c r="C16" s="88">
         <v>0.0483</v>
       </c>
-      <c r="D16" s="87"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="88">
         <v>0.0231</v>
       </c>
@@ -3158,11 +3215,16 @@
       <c r="C17" s="88">
         <v>0.033</v>
       </c>
-      <c r="D17" s="87"/>
+      <c r="D17" s="87">
+        <v>0.0192</v>
+      </c>
       <c r="E17" s="88">
         <v>0.0254</v>
       </c>
-      <c r="F17" s="89"/>
+      <c r="F17" s="89">
+        <f t="shared" ref="F17:F23" si="2">E17-D17</f>
+        <v>0.0062</v>
+      </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="90" t="s">
@@ -3174,11 +3236,16 @@
       <c r="C18" s="88">
         <v>0.0214</v>
       </c>
-      <c r="D18" s="87"/>
+      <c r="D18" s="87">
+        <v>0.0149</v>
+      </c>
       <c r="E18" s="88">
         <v>0.0164</v>
       </c>
-      <c r="F18" s="89"/>
+      <c r="F18" s="89">
+        <f t="shared" si="2"/>
+        <v>0.0015</v>
+      </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="90" t="s">
@@ -3190,11 +3257,16 @@
       <c r="C19" s="88">
         <v>0.0145</v>
       </c>
-      <c r="D19" s="87"/>
+      <c r="D19" s="87">
+        <v>0.012</v>
+      </c>
       <c r="E19" s="88">
         <v>0.0101</v>
       </c>
-      <c r="F19" s="89"/>
+      <c r="F19" s="89">
+        <f t="shared" si="2"/>
+        <v>-0.0019</v>
+      </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="90" t="s">
@@ -3206,11 +3278,16 @@
       <c r="C20" s="88">
         <v>0.0367</v>
       </c>
-      <c r="D20" s="87"/>
+      <c r="D20" s="87">
+        <v>0.0267</v>
+      </c>
       <c r="E20" s="88">
         <v>0.0279</v>
       </c>
-      <c r="F20" s="89"/>
+      <c r="F20" s="89">
+        <f t="shared" si="2"/>
+        <v>0.0012</v>
+      </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="90" t="s">
@@ -3222,11 +3299,16 @@
       <c r="C21" s="88">
         <v>0.0161</v>
       </c>
-      <c r="D21" s="87"/>
+      <c r="D21" s="87">
+        <v>0.0125</v>
+      </c>
       <c r="E21" s="88">
         <v>0.0162</v>
       </c>
-      <c r="F21" s="89"/>
+      <c r="F21" s="89">
+        <f t="shared" si="2"/>
+        <v>0.0037</v>
+      </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="90" t="s">
@@ -3238,11 +3320,16 @@
       <c r="C22" s="88">
         <v>0.0232</v>
       </c>
-      <c r="D22" s="87"/>
+      <c r="D22" s="87">
+        <v>0.0192</v>
+      </c>
       <c r="E22" s="88">
         <v>0.0301</v>
       </c>
-      <c r="F22" s="89"/>
+      <c r="F22" s="89">
+        <f t="shared" si="2"/>
+        <v>0.0109</v>
+      </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="90" t="s">
@@ -3254,11 +3341,16 @@
       <c r="C23" s="88">
         <v>0.0229</v>
       </c>
-      <c r="D23" s="87"/>
+      <c r="D23" s="87">
+        <v>0.0044</v>
+      </c>
       <c r="E23" s="88">
         <v>0.0311</v>
       </c>
-      <c r="F23" s="89"/>
+      <c r="F23" s="89">
+        <f t="shared" si="2"/>
+        <v>0.0267</v>
+      </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="90" t="s">
@@ -3270,7 +3362,7 @@
       <c r="C24" s="88">
         <v>0.0504</v>
       </c>
-      <c r="D24" s="87"/>
+      <c r="D24" s="91"/>
       <c r="E24" s="88">
         <v>0.0273</v>
       </c>
@@ -3286,11 +3378,16 @@
       <c r="C25" s="88">
         <v>0.0192</v>
       </c>
-      <c r="D25" s="87"/>
+      <c r="D25" s="87">
+        <v>0.0155</v>
+      </c>
       <c r="E25" s="88">
         <v>0.0134</v>
       </c>
-      <c r="F25" s="89"/>
+      <c r="F25" s="89">
+        <f t="shared" ref="F25:F32" si="3">E25-D25</f>
+        <v>-0.0021</v>
+      </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="90" t="s">
@@ -3302,11 +3399,16 @@
       <c r="C26" s="88">
         <v>0.0279</v>
       </c>
-      <c r="D26" s="87"/>
+      <c r="D26" s="87">
+        <v>0.0165</v>
+      </c>
       <c r="E26" s="88">
         <v>0.0233</v>
       </c>
-      <c r="F26" s="89"/>
+      <c r="F26" s="89">
+        <f t="shared" si="3"/>
+        <v>0.0068</v>
+      </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="90" t="s">
@@ -3318,11 +3420,16 @@
       <c r="C27" s="88">
         <v>0.0185</v>
       </c>
-      <c r="D27" s="87"/>
+      <c r="D27" s="87">
+        <v>0.018</v>
+      </c>
       <c r="E27" s="88">
         <v>0.0165</v>
       </c>
-      <c r="F27" s="89"/>
+      <c r="F27" s="89">
+        <f t="shared" si="3"/>
+        <v>-0.0015</v>
+      </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="90" t="s">
@@ -3334,11 +3441,16 @@
       <c r="C28" s="88">
         <v>0.0218</v>
       </c>
-      <c r="D28" s="87"/>
+      <c r="D28" s="87">
+        <v>0.0205</v>
+      </c>
       <c r="E28" s="88">
         <v>0.0222</v>
       </c>
-      <c r="F28" s="89"/>
+      <c r="F28" s="89">
+        <f t="shared" si="3"/>
+        <v>0.0017</v>
+      </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="90" t="s">
@@ -3350,11 +3462,16 @@
       <c r="C29" s="88">
         <v>0.0262</v>
       </c>
-      <c r="D29" s="87"/>
+      <c r="D29" s="87">
+        <v>0.0213</v>
+      </c>
       <c r="E29" s="88">
         <v>0.0229</v>
       </c>
-      <c r="F29" s="89"/>
+      <c r="F29" s="89">
+        <f t="shared" si="3"/>
+        <v>0.0016</v>
+      </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="90" t="s">
@@ -3366,11 +3483,16 @@
       <c r="C30" s="88">
         <v>0.016</v>
       </c>
-      <c r="D30" s="87"/>
+      <c r="D30" s="87">
+        <v>0.0155</v>
+      </c>
       <c r="E30" s="88">
         <v>0.0148</v>
       </c>
-      <c r="F30" s="89"/>
+      <c r="F30" s="89">
+        <f t="shared" si="3"/>
+        <v>-0.0007</v>
+      </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="90" t="s">
@@ -3382,11 +3504,16 @@
       <c r="C31" s="88">
         <v>0.0447</v>
       </c>
-      <c r="D31" s="87"/>
+      <c r="D31" s="87">
+        <v>0.0308</v>
+      </c>
       <c r="E31" s="88">
         <v>0.033</v>
       </c>
-      <c r="F31" s="89"/>
+      <c r="F31" s="89">
+        <f t="shared" si="3"/>
+        <v>0.0022</v>
+      </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="90" t="s">
@@ -3398,11 +3525,16 @@
       <c r="C32" s="88">
         <v>0.018</v>
       </c>
-      <c r="D32" s="87"/>
+      <c r="D32" s="87">
+        <v>0.0105</v>
+      </c>
       <c r="E32" s="88">
         <v>0.0104</v>
       </c>
-      <c r="F32" s="89"/>
+      <c r="F32" s="89">
+        <f t="shared" si="3"/>
+        <v>-0.0001</v>
+      </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="90" t="s">
@@ -3414,19 +3546,19 @@
       <c r="C33" s="88">
         <v>0.0674</v>
       </c>
-      <c r="D33" s="87"/>
+      <c r="D33" s="91"/>
       <c r="E33" s="88">
         <v>0.0387</v>
       </c>
       <c r="F33" s="89"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="91"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="93"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="94"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F6:F34">
@@ -3451,177 +3583,185 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.71"/>
-    <col customWidth="1" min="2" max="2" width="9.43"/>
-    <col customWidth="1" min="3" max="3" width="17.57"/>
-    <col customWidth="1" min="4" max="4" width="113.57"/>
+    <col customWidth="1" min="1" max="1" width="12.0"/>
+    <col customWidth="1" min="2" max="2" width="8.25"/>
+    <col customWidth="1" min="3" max="3" width="15.38"/>
+    <col customWidth="1" min="4" max="4" width="99.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="95" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="96">
+      <c r="A2" s="97">
         <v>44351.0</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="97" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="98" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="97"/>
+      <c r="A3" s="97">
+        <v>44665.0</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="100">
+        <v>2021.0</v>
+      </c>
+      <c r="D3" s="98" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="101"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="103"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="104"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="104"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="101"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="104"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="103"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="104"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="103"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="104"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="104"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="103"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="104"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="103"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="104"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="104"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="103"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="104"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="101"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="103"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="104"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="101"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="103"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="104"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="101"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="103"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="104"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="101"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="103"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="104"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="107"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="103"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="104"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="101"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="103"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="104"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="101"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="103"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="104"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="101"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="103"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="104"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="101"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="103"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="104"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="101"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="103"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="104"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="101"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="103"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="104"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="101"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="103"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="104"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="104"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="103"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="104"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="104"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="97"/>
+      <c r="A25" s="105"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="98"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
